--- a/Code/Results/Cases/Case_2_101/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_101/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.82368890331446</v>
+        <v>13.6921766149853</v>
       </c>
       <c r="C2">
-        <v>6.202404411170454</v>
+        <v>5.805113958344023</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.203494195131444</v>
+        <v>10.59014560488849</v>
       </c>
       <c r="F2">
-        <v>64.86023116481492</v>
+        <v>58.56705348503769</v>
       </c>
       <c r="G2">
-        <v>2.156816017607337</v>
+        <v>3.752620753357582</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.09224823258761</v>
+        <v>11.82666676991938</v>
       </c>
       <c r="K2">
-        <v>10.82631638604994</v>
+        <v>13.2876487452411</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7.451623719007314</v>
+        <v>15.17640953837269</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.10062978299715</v>
+        <v>13.58615367903109</v>
       </c>
       <c r="C3">
-        <v>5.732164844196833</v>
+        <v>5.756293057901689</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.53553301083852</v>
+        <v>10.68636114026202</v>
       </c>
       <c r="F3">
-        <v>61.46533467363601</v>
+        <v>57.57072082385206</v>
       </c>
       <c r="G3">
-        <v>2.167463196100129</v>
+        <v>3.756076588891303</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.70202400788353</v>
+        <v>11.71322671731022</v>
       </c>
       <c r="K3">
-        <v>10.30222725222815</v>
+        <v>13.24555980777352</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>6.948774208829642</v>
+        <v>15.34912193042811</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.64869089002222</v>
+        <v>13.5256338683456</v>
       </c>
       <c r="C4">
-        <v>5.431011075746524</v>
+        <v>5.729155111702994</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.111733112445066</v>
+        <v>10.75242816411445</v>
       </c>
       <c r="F4">
-        <v>59.33005084941579</v>
+        <v>56.95495685763711</v>
       </c>
       <c r="G4">
-        <v>2.174129190389465</v>
+        <v>3.75830609555199</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.45939969177286</v>
+        <v>11.64252244699913</v>
       </c>
       <c r="K4">
-        <v>9.979592038969518</v>
+        <v>13.2241199372458</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>6.631370055614274</v>
+        <v>15.46120919383194</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.46269810992387</v>
+        <v>13.50214937830479</v>
       </c>
       <c r="C5">
-        <v>5.305084594713783</v>
+        <v>5.718823231041211</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.93543114169335</v>
+        <v>10.78108717965001</v>
       </c>
       <c r="F5">
-        <v>58.4475050461233</v>
+        <v>56.70324935544243</v>
       </c>
       <c r="G5">
-        <v>2.176880910409281</v>
+        <v>3.759241805002322</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.35977196366638</v>
+        <v>11.61345506189815</v>
       </c>
       <c r="K5">
-        <v>9.848053628518675</v>
+        <v>13.21649688273394</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>6.499711186337177</v>
+        <v>15.50840778981808</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.43171030901481</v>
+        <v>13.4983216590451</v>
       </c>
       <c r="C6">
-        <v>5.283978939905473</v>
+        <v>5.7171518952162</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.905934451315888</v>
+        <v>10.78595021541491</v>
       </c>
       <c r="F6">
-        <v>58.3002244737714</v>
+        <v>56.66141326862172</v>
       </c>
       <c r="G6">
-        <v>2.177340043127714</v>
+        <v>3.759398822857444</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.34318353795946</v>
+        <v>11.60861333449481</v>
       </c>
       <c r="K6">
-        <v>9.82621301700895</v>
+        <v>13.21529852190944</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>6.477705799181312</v>
+        <v>15.51633710484844</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.64618963341868</v>
+        <v>13.52531234626364</v>
       </c>
       <c r="C7">
-        <v>5.429325858231395</v>
+        <v>5.729012812346908</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.109370222332334</v>
+        <v>10.7528076686515</v>
       </c>
       <c r="F7">
-        <v>59.31819811048425</v>
+        <v>56.95156508916289</v>
       </c>
       <c r="G7">
-        <v>2.174166154519574</v>
+        <v>3.758318604715863</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.45805912506706</v>
+        <v>11.64213145307139</v>
       </c>
       <c r="K7">
-        <v>9.977818095852362</v>
+        <v>13.2240126123703</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6.629604000062696</v>
+        <v>15.46183956361981</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.57612713738948</v>
+        <v>13.65468622987777</v>
       </c>
       <c r="C8">
-        <v>6.042793757293309</v>
+        <v>5.78770000438331</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.975914704879767</v>
+        <v>10.62185691259195</v>
       </c>
       <c r="F8">
-        <v>63.70038368911466</v>
+        <v>58.2244875401791</v>
       </c>
       <c r="G8">
-        <v>2.160462328546603</v>
+        <v>3.753790056278818</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.95832522035142</v>
+        <v>11.78777666827258</v>
       </c>
       <c r="K8">
-        <v>10.64586519815136</v>
+        <v>13.27222714246337</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>7.27994897090489</v>
+        <v>15.23470871860908</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.42838120851336</v>
+        <v>13.94343796014092</v>
       </c>
       <c r="C9">
-        <v>7.151322339529196</v>
+        <v>5.92462896785753</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.57508562738084</v>
+        <v>10.42148869598758</v>
       </c>
       <c r="F9">
-        <v>71.88399472453564</v>
+        <v>60.67896616330073</v>
       </c>
       <c r="G9">
-        <v>2.134461756580895</v>
+        <v>3.745758483967193</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.91594540228685</v>
+        <v>12.06462511513949</v>
       </c>
       <c r="K9">
-        <v>12.31861768230333</v>
+        <v>13.40134550282739</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>8.493729645034579</v>
+        <v>14.83710753435077</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.8872052825249</v>
+        <v>14.17508807877627</v>
       </c>
       <c r="C10">
-        <v>7.914724876507924</v>
+        <v>6.037524866379529</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.70231466116783</v>
+        <v>10.30997829854011</v>
       </c>
       <c r="F10">
-        <v>77.65186276472065</v>
+        <v>62.44401212473245</v>
       </c>
       <c r="G10">
-        <v>2.115658524144307</v>
+        <v>3.740368276758439</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.60741404375888</v>
+        <v>12.2621356231302</v>
       </c>
       <c r="K10">
-        <v>13.57213974334534</v>
+        <v>13.51669559684193</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>9.35939196058597</v>
+        <v>14.57395587815587</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.52914598772668</v>
+        <v>14.28427410328986</v>
       </c>
       <c r="C11">
-        <v>8.252665581592426</v>
+        <v>6.091308214956867</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.20832307508321</v>
+        <v>10.26727413170204</v>
       </c>
       <c r="F11">
-        <v>80.22791212471961</v>
+        <v>63.23609408763839</v>
       </c>
       <c r="G11">
-        <v>2.107108726386773</v>
+        <v>3.738025519260274</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.92025182730178</v>
+        <v>12.35059437268058</v>
       </c>
       <c r="K11">
-        <v>14.12311218758941</v>
+        <v>13.57346529985043</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>9.750580916698768</v>
+        <v>14.4604975246459</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.76933316318226</v>
+        <v>14.3261293097879</v>
       </c>
       <c r="C12">
-        <v>8.379461724652863</v>
+        <v>6.112001510978291</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.39931365341612</v>
+        <v>10.25227862509194</v>
       </c>
       <c r="F12">
-        <v>81.1972323220681</v>
+        <v>63.53427103885257</v>
       </c>
       <c r="G12">
-        <v>2.103865773970285</v>
+        <v>3.737153977316884</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.03857588033923</v>
+        <v>12.38388183068354</v>
       </c>
       <c r="K12">
-        <v>14.32920111386536</v>
+        <v>13.59556530569356</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9.898641046074772</v>
+        <v>14.41843051173808</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.71772976706421</v>
+        <v>14.31709303654933</v>
       </c>
       <c r="C13">
-        <v>8.352203211370721</v>
+        <v>6.107530669884429</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.35820197881651</v>
+        <v>10.25545554483638</v>
       </c>
       <c r="F13">
-        <v>80.98873283634993</v>
+        <v>63.47013509975309</v>
       </c>
       <c r="G13">
-        <v>2.104564541976534</v>
+        <v>3.737340986887347</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13.01309693456774</v>
+        <v>12.3767222777297</v>
       </c>
       <c r="K13">
-        <v>14.28492591242603</v>
+        <v>13.59077913100764</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>9.866751677459899</v>
+        <v>14.42745051569387</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.548963114633</v>
+        <v>14.28770758315106</v>
       </c>
       <c r="C14">
-        <v>8.263119669274934</v>
+        <v>6.093004246823609</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.22404628138732</v>
+        <v>10.26601675688422</v>
       </c>
       <c r="F14">
-        <v>80.30777758296703</v>
+        <v>63.2606618585485</v>
       </c>
       <c r="G14">
-        <v>2.10684207038493</v>
+        <v>3.73795350473766</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.92998852786134</v>
+        <v>12.3533372168746</v>
       </c>
       <c r="K14">
-        <v>14.14011705008331</v>
+        <v>13.57527149625855</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>9.762761520395502</v>
+        <v>14.45701867340199</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.44521782445025</v>
+        <v>14.2697732466274</v>
       </c>
       <c r="C15">
-        <v>8.208405850631332</v>
+        <v>6.084148269238105</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.14180214652418</v>
+        <v>10.27263954991492</v>
       </c>
       <c r="F15">
-        <v>79.88989350305252</v>
+        <v>63.1321173004908</v>
       </c>
       <c r="G15">
-        <v>2.108236238712248</v>
+        <v>3.738330719336844</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.8790675381439</v>
+        <v>12.33898555310747</v>
       </c>
       <c r="K15">
-        <v>14.05109200017966</v>
+        <v>13.56585061881873</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>9.699064536848065</v>
+        <v>14.47524682167852</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.8448342543119</v>
+        <v>14.16802584441238</v>
       </c>
       <c r="C16">
-        <v>7.892465598440015</v>
+        <v>6.03405694250031</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.66913822291176</v>
+        <v>10.31293244351211</v>
       </c>
       <c r="F16">
-        <v>77.48260472909362</v>
+        <v>62.39201148219696</v>
       </c>
       <c r="G16">
-        <v>2.116216867547646</v>
+        <v>3.740523571453421</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.58694322731224</v>
+        <v>12.25632580272633</v>
       </c>
       <c r="K16">
-        <v>13.53576273966019</v>
+        <v>13.51307074022655</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>9.333799014896941</v>
+        <v>14.58149628249881</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.47110686331546</v>
+        <v>14.10655504494617</v>
       </c>
       <c r="C17">
-        <v>7.696367438402521</v>
+        <v>6.00393344558651</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.37767180105154</v>
+        <v>10.33972141280192</v>
       </c>
       <c r="F17">
-        <v>75.99399688590624</v>
+        <v>61.93505177435452</v>
       </c>
       <c r="G17">
-        <v>2.121109790461449</v>
+        <v>3.741896728940159</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.40736139747998</v>
+        <v>12.205253531048</v>
       </c>
       <c r="K17">
-        <v>13.21483746101129</v>
+        <v>13.48178192670092</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>9.109252437097345</v>
+        <v>14.6482765909545</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.2540925456715</v>
+        <v>14.07155940445184</v>
       </c>
       <c r="C18">
-        <v>7.582686952030861</v>
+        <v>5.986836979295169</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.20936654018468</v>
+        <v>10.35588354741903</v>
       </c>
       <c r="F18">
-        <v>75.13323619776314</v>
+        <v>61.67121155856851</v>
       </c>
       <c r="G18">
-        <v>2.12392483462842</v>
+        <v>3.742696824479026</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.3039012918165</v>
+        <v>12.17574789452441</v>
       </c>
       <c r="K18">
-        <v>13.02842220549381</v>
+        <v>13.46419081679665</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>8.979833504523377</v>
+        <v>14.68727528277655</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.18025606237338</v>
+        <v>14.0597736005785</v>
       </c>
       <c r="C19">
-        <v>7.544039110716648</v>
+        <v>5.981088537561778</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.15225785695446</v>
+        <v>10.36148455926</v>
       </c>
       <c r="F19">
-        <v>74.84099794635239</v>
+        <v>61.58171296853131</v>
       </c>
       <c r="G19">
-        <v>2.124878257397309</v>
+        <v>3.742969493859932</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.26883963431434</v>
+        <v>12.16573573864538</v>
       </c>
       <c r="K19">
-        <v>12.9649851645386</v>
+        <v>13.45830484002929</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>8.935960445189716</v>
+        <v>14.700580685748</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.51110213929467</v>
+        <v>14.11306165862282</v>
       </c>
       <c r="C20">
-        <v>7.717333397304042</v>
+        <v>6.007116521331326</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.40876499580299</v>
+        <v>10.33679150194875</v>
       </c>
       <c r="F20">
-        <v>76.15292861316149</v>
+        <v>61.98380188599549</v>
       </c>
       <c r="G20">
-        <v>2.120588891332708</v>
+        <v>3.741749489592245</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.42649504780556</v>
+        <v>12.21070381200395</v>
       </c>
       <c r="K20">
-        <v>13.24918816393967</v>
+        <v>13.48507082503023</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>9.133181274188996</v>
+        <v>14.64110682633539</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.59861081467265</v>
+        <v>14.2963253060513</v>
       </c>
       <c r="C21">
-        <v>8.289316084758076</v>
+        <v>6.097262323054718</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.26346492230984</v>
+        <v>10.2628825939833</v>
       </c>
       <c r="F21">
-        <v>80.50795147980399</v>
+        <v>63.32223879718148</v>
       </c>
       <c r="G21">
-        <v>2.106173300982888</v>
+        <v>3.737773170589322</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.95440231129055</v>
+        <v>12.36021175380231</v>
       </c>
       <c r="K21">
-        <v>14.18271831395217</v>
+        <v>13.57981023895383</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>9.79330534836568</v>
+        <v>14.44830945072161</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.29257489667816</v>
+        <v>14.41904604793062</v>
       </c>
       <c r="C22">
-        <v>8.656389690199793</v>
+        <v>6.158071383219498</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.81862977688079</v>
+        <v>10.22144111963592</v>
       </c>
       <c r="F22">
-        <v>83.31872159831612</v>
+        <v>64.18659424817665</v>
       </c>
       <c r="G22">
-        <v>2.096717421321899</v>
+        <v>3.735265352094786</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.29867097431415</v>
+        <v>12.45669552187358</v>
       </c>
       <c r="K22">
-        <v>14.77808044663211</v>
+        <v>13.64523215417749</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>10.22447494869613</v>
+        <v>14.32753422257442</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.92364752079683</v>
+        <v>14.35329097762425</v>
       </c>
       <c r="C23">
-        <v>8.461031084714072</v>
+        <v>6.125450687832538</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.52251085346533</v>
+        <v>10.24292420115137</v>
       </c>
       <c r="F23">
-        <v>81.82151518862788</v>
+        <v>63.72628823676474</v>
       </c>
       <c r="G23">
-        <v>2.10176953651825</v>
+        <v>3.736595535719206</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.11495385280585</v>
+        <v>12.40531600290994</v>
       </c>
       <c r="K23">
-        <v>14.46159457481624</v>
+        <v>13.60999995423891</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.994263347513463</v>
+        <v>14.39151625747871</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.49302699844216</v>
+        <v>14.11011894181035</v>
       </c>
       <c r="C24">
-        <v>7.707857630744869</v>
+        <v>6.005676759801492</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.39471008471775</v>
+        <v>10.3381137464726</v>
       </c>
       <c r="F24">
-        <v>76.08109101652045</v>
+        <v>61.96176545800232</v>
       </c>
       <c r="G24">
-        <v>2.120824383049889</v>
+        <v>3.741816023321531</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.41784540519867</v>
+        <v>12.20824018630517</v>
       </c>
       <c r="K24">
-        <v>13.23366417961296</v>
+        <v>13.48358267555573</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>9.122364078472915</v>
+        <v>14.64434638967288</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.87068070257643</v>
+        <v>13.86175562447009</v>
       </c>
       <c r="C25">
-        <v>6.8609244809668</v>
+        <v>5.885347446142529</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.15191564478389</v>
+        <v>10.4695175733378</v>
       </c>
       <c r="F25">
-        <v>69.7141610750715</v>
+        <v>60.02078111184034</v>
       </c>
       <c r="G25">
-        <v>2.141424501161273</v>
+        <v>3.747841073343489</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.65923483076932</v>
+        <v>11.99072508545349</v>
       </c>
       <c r="K25">
-        <v>11.8386205043099</v>
+        <v>13.36276964718738</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>8.170873505926332</v>
+        <v>14.93957053400436</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_101/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_101/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.6921766149853</v>
+        <v>12.82368890331445</v>
       </c>
       <c r="C2">
-        <v>5.805113958344023</v>
+        <v>6.202404411170493</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.59014560488849</v>
+        <v>9.203494195131089</v>
       </c>
       <c r="F2">
-        <v>58.56705348503769</v>
+        <v>64.86023116481444</v>
       </c>
       <c r="G2">
-        <v>3.752620753357582</v>
+        <v>2.156816017607056</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.82666676991938</v>
+        <v>11.09224823258748</v>
       </c>
       <c r="K2">
-        <v>13.2876487452411</v>
+        <v>10.82631638604999</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.17640953837269</v>
+        <v>7.4516237190073</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.58615367903109</v>
+        <v>12.10062978299716</v>
       </c>
       <c r="C3">
-        <v>5.756293057901689</v>
+        <v>5.732164844196739</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.68636114026202</v>
+        <v>8.535533010838565</v>
       </c>
       <c r="F3">
-        <v>57.57072082385206</v>
+        <v>61.46533467363589</v>
       </c>
       <c r="G3">
-        <v>3.756076588891303</v>
+        <v>2.167463196100267</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.71322671731022</v>
+        <v>10.70202400788358</v>
       </c>
       <c r="K3">
-        <v>13.24555980777352</v>
+        <v>10.30222725222821</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.34912193042811</v>
+        <v>6.948774208829657</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.5256338683456</v>
+        <v>11.64869089002225</v>
       </c>
       <c r="C4">
-        <v>5.729155111702994</v>
+        <v>5.431011075746576</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.75242816411445</v>
+        <v>8.111733112444949</v>
       </c>
       <c r="F4">
-        <v>56.95495685763711</v>
+        <v>59.33005084941565</v>
       </c>
       <c r="G4">
-        <v>3.75830609555199</v>
+        <v>2.174129190389192</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.64252244699913</v>
+        <v>10.45939969177294</v>
       </c>
       <c r="K4">
-        <v>13.2241199372458</v>
+        <v>9.979592038969528</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.46120919383194</v>
+        <v>6.631370055614254</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.50214937830479</v>
+        <v>11.46269810992395</v>
       </c>
       <c r="C5">
-        <v>5.718823231041211</v>
+        <v>5.30508459471387</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.78108717965001</v>
+        <v>7.935431141693094</v>
       </c>
       <c r="F5">
-        <v>56.70324935544243</v>
+        <v>58.44750504612281</v>
       </c>
       <c r="G5">
-        <v>3.759241805002322</v>
+        <v>2.176880910409289</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.61345506189815</v>
+        <v>10.35977196366628</v>
       </c>
       <c r="K5">
-        <v>13.21649688273394</v>
+        <v>9.848053628518711</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.50840778981808</v>
+        <v>6.499711186337273</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.4983216590451</v>
+        <v>11.43171030901486</v>
       </c>
       <c r="C6">
-        <v>5.7171518952162</v>
+        <v>5.283978939905567</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.78595021541491</v>
+        <v>7.905934451315587</v>
       </c>
       <c r="F6">
-        <v>56.66141326862172</v>
+        <v>58.30022447377057</v>
       </c>
       <c r="G6">
-        <v>3.759398822857444</v>
+        <v>2.177340043127845</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.60861333449481</v>
+        <v>10.34318353795928</v>
       </c>
       <c r="K6">
-        <v>13.21529852190944</v>
+        <v>9.826213017009001</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.51633710484844</v>
+        <v>6.477705799181491</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.52531234626364</v>
+        <v>11.64618963341869</v>
       </c>
       <c r="C7">
-        <v>5.729012812346908</v>
+        <v>5.429325858231445</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.7528076686515</v>
+        <v>8.10937022233243</v>
       </c>
       <c r="F7">
-        <v>56.95156508916289</v>
+        <v>59.31819811048451</v>
       </c>
       <c r="G7">
-        <v>3.758318604715863</v>
+        <v>2.174166154519713</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.64213145307139</v>
+        <v>10.45805912506708</v>
       </c>
       <c r="K7">
-        <v>13.2240126123703</v>
+        <v>9.977818095852346</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.46183956361981</v>
+        <v>6.629604000062604</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.65468622987777</v>
+        <v>12.57612713738947</v>
       </c>
       <c r="C8">
-        <v>5.78770000438331</v>
+        <v>6.042793757293367</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.62185691259195</v>
+        <v>8.975914704879655</v>
       </c>
       <c r="F8">
-        <v>58.2244875401791</v>
+        <v>63.70038368911472</v>
       </c>
       <c r="G8">
-        <v>3.753790056278818</v>
+        <v>2.160462328546611</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.78777666827258</v>
+        <v>10.95832522035146</v>
       </c>
       <c r="K8">
-        <v>13.27222714246337</v>
+        <v>10.64586519815137</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.23470871860908</v>
+        <v>7.279948970904797</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.94343796014092</v>
+        <v>14.42838120851329</v>
       </c>
       <c r="C9">
-        <v>5.92462896785753</v>
+        <v>7.151322339529168</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.42148869598758</v>
+        <v>10.57508562738057</v>
       </c>
       <c r="F9">
-        <v>60.67896616330073</v>
+        <v>71.88399472453546</v>
       </c>
       <c r="G9">
-        <v>3.745758483967193</v>
+        <v>2.134461756580747</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.06462511513949</v>
+        <v>11.91594540228673</v>
       </c>
       <c r="K9">
-        <v>13.40134550282739</v>
+        <v>12.31861768230325</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.83710753435077</v>
+        <v>8.493729645034422</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.17508807877627</v>
+        <v>15.88720528252506</v>
       </c>
       <c r="C10">
-        <v>6.037524866379529</v>
+        <v>7.914724876507918</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.30997829854011</v>
+        <v>11.70231466116814</v>
       </c>
       <c r="F10">
-        <v>62.44401212473245</v>
+        <v>77.65186276472143</v>
       </c>
       <c r="G10">
-        <v>3.740368276758439</v>
+        <v>2.115658524144359</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.2621356231302</v>
+        <v>12.60741404375901</v>
       </c>
       <c r="K10">
-        <v>13.51669559684193</v>
+        <v>13.57213974334541</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.57395587815587</v>
+        <v>9.359391960585892</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.28427410328986</v>
+        <v>16.52914598772675</v>
       </c>
       <c r="C11">
-        <v>6.091308214956867</v>
+        <v>8.252665581592312</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.26727413170204</v>
+        <v>12.2083230750836</v>
       </c>
       <c r="F11">
-        <v>63.23609408763839</v>
+        <v>80.22791212472033</v>
       </c>
       <c r="G11">
-        <v>3.738025519260274</v>
+        <v>2.107108726386746</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.35059437268058</v>
+        <v>12.92025182730193</v>
       </c>
       <c r="K11">
-        <v>13.57346529985043</v>
+        <v>14.12311218758943</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.4604975246459</v>
+        <v>9.750580916698729</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.3261293097879</v>
+        <v>16.76933316318216</v>
       </c>
       <c r="C12">
-        <v>6.112001510978291</v>
+        <v>8.379461724652925</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.25227862509194</v>
+        <v>12.39931365341618</v>
       </c>
       <c r="F12">
-        <v>63.53427103885257</v>
+        <v>81.19723232206817</v>
       </c>
       <c r="G12">
-        <v>3.737153977316884</v>
+        <v>2.103865773970433</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.38388183068354</v>
+        <v>13.03857588033927</v>
       </c>
       <c r="K12">
-        <v>13.59556530569356</v>
+        <v>14.32920111386528</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.41843051173808</v>
+        <v>9.898641046074774</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.31709303654933</v>
+        <v>16.71772976706421</v>
       </c>
       <c r="C13">
-        <v>6.107530669884429</v>
+        <v>8.352203211370721</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.25545554483638</v>
+        <v>12.35820197881662</v>
       </c>
       <c r="F13">
-        <v>63.47013509975309</v>
+        <v>80.98873283635037</v>
       </c>
       <c r="G13">
-        <v>3.737340986887347</v>
+        <v>2.104564541977196</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.3767222777297</v>
+        <v>13.01309693456785</v>
       </c>
       <c r="K13">
-        <v>13.59077913100764</v>
+        <v>14.28492591242604</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.42745051569387</v>
+        <v>9.866751677459943</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.28770758315106</v>
+        <v>16.54896311463288</v>
       </c>
       <c r="C14">
-        <v>6.093004246823609</v>
+        <v>8.263119669274767</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.26601675688422</v>
+        <v>12.22404628138709</v>
       </c>
       <c r="F14">
-        <v>63.2606618585485</v>
+        <v>80.30777758296644</v>
       </c>
       <c r="G14">
-        <v>3.73795350473766</v>
+        <v>2.106842070384808</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.3533372168746</v>
+        <v>12.9299885278613</v>
       </c>
       <c r="K14">
-        <v>13.57527149625855</v>
+        <v>14.14011705008319</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.45701867340199</v>
+        <v>9.762761520395431</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.2697732466274</v>
+        <v>16.44521782445014</v>
       </c>
       <c r="C15">
-        <v>6.084148269238105</v>
+        <v>8.208405850631232</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.27263954991492</v>
+        <v>12.14180214652415</v>
       </c>
       <c r="F15">
-        <v>63.1321173004908</v>
+        <v>79.88989350305202</v>
       </c>
       <c r="G15">
-        <v>3.738330719336844</v>
+        <v>2.108236238712121</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.33898555310747</v>
+        <v>12.87906753814385</v>
       </c>
       <c r="K15">
-        <v>13.56585061881873</v>
+        <v>14.0510920001795</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.47524682167852</v>
+        <v>9.699064536848127</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.16802584441238</v>
+        <v>15.84483425431194</v>
       </c>
       <c r="C16">
-        <v>6.03405694250031</v>
+        <v>7.892465598440042</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.31293244351211</v>
+        <v>11.66913822291207</v>
       </c>
       <c r="F16">
-        <v>62.39201148219696</v>
+        <v>77.48260472909423</v>
       </c>
       <c r="G16">
-        <v>3.740523571453421</v>
+        <v>2.11621686754739</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.25632580272633</v>
+        <v>12.58694322731235</v>
       </c>
       <c r="K16">
-        <v>13.51307074022655</v>
+        <v>13.53576273966021</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.58149628249881</v>
+        <v>9.333799014897012</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.10655504494617</v>
+        <v>15.47110686331558</v>
       </c>
       <c r="C17">
-        <v>6.00393344558651</v>
+        <v>7.696367438402397</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.33972141280192</v>
+        <v>11.3776718010515</v>
       </c>
       <c r="F17">
-        <v>61.93505177435452</v>
+        <v>75.99399688590654</v>
       </c>
       <c r="G17">
-        <v>3.741896728940159</v>
+        <v>2.121109790461459</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.205253531048</v>
+        <v>12.40736139748001</v>
       </c>
       <c r="K17">
-        <v>13.48178192670092</v>
+        <v>13.21483746101129</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.6482765909545</v>
+        <v>9.109252437097199</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.07155940445184</v>
+        <v>15.2540925456714</v>
       </c>
       <c r="C18">
-        <v>5.986836979295169</v>
+        <v>7.582686952031138</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.35588354741903</v>
+        <v>11.20936654018457</v>
       </c>
       <c r="F18">
-        <v>61.67121155856851</v>
+        <v>75.13323619776261</v>
       </c>
       <c r="G18">
-        <v>3.742696824479026</v>
+        <v>2.123924834628785</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.17574789452441</v>
+        <v>12.30390129181634</v>
       </c>
       <c r="K18">
-        <v>13.46419081679665</v>
+        <v>13.02842220549381</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.68727528277655</v>
+        <v>8.9798335045234</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.0597736005785</v>
+        <v>15.18025606237343</v>
       </c>
       <c r="C19">
-        <v>5.981088537561778</v>
+        <v>7.544039110716456</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.36148455926</v>
+        <v>11.15225785695423</v>
       </c>
       <c r="F19">
-        <v>61.58171296853131</v>
+        <v>74.84099794635215</v>
       </c>
       <c r="G19">
-        <v>3.742969493859932</v>
+        <v>2.12487825739732</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.16573573864538</v>
+        <v>12.26883963431431</v>
       </c>
       <c r="K19">
-        <v>13.45830484002929</v>
+        <v>12.96498516453856</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.700580685748</v>
+        <v>8.935960445189631</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.11306165862282</v>
+        <v>15.51110213929462</v>
       </c>
       <c r="C20">
-        <v>6.007116521331326</v>
+        <v>7.717333397304292</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.33679150194875</v>
+        <v>11.40876499580285</v>
       </c>
       <c r="F20">
-        <v>61.98380188599549</v>
+        <v>76.15292861316119</v>
       </c>
       <c r="G20">
-        <v>3.741749489592245</v>
+        <v>2.120588891333067</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.21070381200395</v>
+        <v>12.42649504780549</v>
       </c>
       <c r="K20">
-        <v>13.48507082503023</v>
+        <v>13.24918816393968</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.64110682633539</v>
+        <v>9.13318127418901</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.2963253060513</v>
+        <v>16.59861081467258</v>
       </c>
       <c r="C21">
-        <v>6.097262323054718</v>
+        <v>8.289316084757948</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.2628825939833</v>
+        <v>12.26346492230968</v>
       </c>
       <c r="F21">
-        <v>63.32223879718148</v>
+        <v>80.50795147980384</v>
       </c>
       <c r="G21">
-        <v>3.737773170589322</v>
+        <v>2.106173300982999</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.36021175380231</v>
+        <v>12.95440231129051</v>
       </c>
       <c r="K21">
-        <v>13.57981023895383</v>
+        <v>14.18271831395216</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.44830945072161</v>
+        <v>9.793305348365655</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.41904604793062</v>
+        <v>17.29257489667813</v>
       </c>
       <c r="C22">
-        <v>6.158071383219498</v>
+        <v>8.656389690199717</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.22144111963592</v>
+        <v>12.81862977688102</v>
       </c>
       <c r="F22">
-        <v>64.18659424817665</v>
+        <v>83.31872159831694</v>
       </c>
       <c r="G22">
-        <v>3.735265352094786</v>
+        <v>2.096717421321806</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.45669552187358</v>
+        <v>13.29867097431431</v>
       </c>
       <c r="K22">
-        <v>13.64523215417749</v>
+        <v>14.7780804466321</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.32753422257442</v>
+        <v>10.22447494869606</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.35329097762425</v>
+        <v>16.92364752079691</v>
       </c>
       <c r="C23">
-        <v>6.125450687832538</v>
+        <v>8.461031084713845</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.24292420115137</v>
+        <v>12.52251085346536</v>
       </c>
       <c r="F23">
-        <v>63.72628823676474</v>
+        <v>81.82151518862803</v>
       </c>
       <c r="G23">
-        <v>3.736595535719206</v>
+        <v>2.101769536518233</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.40531600290994</v>
+        <v>13.11495385280588</v>
       </c>
       <c r="K23">
-        <v>13.60999995423891</v>
+        <v>14.4615945748162</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.39151625747871</v>
+        <v>9.994263347513426</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.11011894181035</v>
+        <v>15.49302699844216</v>
       </c>
       <c r="C24">
-        <v>6.005676759801492</v>
+        <v>7.707857630744824</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.3381137464726</v>
+        <v>11.39471008471796</v>
       </c>
       <c r="F24">
-        <v>61.96176545800232</v>
+        <v>76.08109101652067</v>
       </c>
       <c r="G24">
-        <v>3.741816023321531</v>
+        <v>2.120824383049737</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.20824018630517</v>
+        <v>12.41784540519865</v>
       </c>
       <c r="K24">
-        <v>13.48358267555573</v>
+        <v>13.23366417961298</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.64434638967288</v>
+        <v>9.12236407847297</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.86175562447009</v>
+        <v>13.87068070257644</v>
       </c>
       <c r="C25">
-        <v>5.885347446142529</v>
+        <v>6.860924480966939</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.4695175733378</v>
+        <v>10.15191564478403</v>
       </c>
       <c r="F25">
-        <v>60.02078111184034</v>
+        <v>69.71416107507166</v>
       </c>
       <c r="G25">
-        <v>3.747841073343489</v>
+        <v>2.141424501161129</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.99072508545349</v>
+        <v>11.65923483076937</v>
       </c>
       <c r="K25">
-        <v>13.36276964718738</v>
+        <v>11.83862050430993</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.93957053400436</v>
+        <v>8.170873505926282</v>
       </c>
       <c r="N25">
         <v>0</v>
